--- a/Auto_RRSIandWiFiSAR_Report/output/WillyWJ_Chen/WiFiSARQUERY.xlsx
+++ b/Auto_RRSIandWiFiSAR_Report/output/WillyWJ_Chen/WiFiSARQUERY.xlsx
@@ -422,7 +422,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,43 +449,43 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>7228124200005</t>
+          <t>7224908800005</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Value Match</t>
+          <t>no log</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>7228124200006</t>
+          <t>7224908800006</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Value Match</t>
+          <t>no log</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>7228124200007</t>
+          <t>7224908800007</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Value Match</t>
+          <t>no log</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>7228124200008</t>
+          <t>7228101300001</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -497,7 +497,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>7228124200010</t>
+          <t>7228101400001</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -509,34 +509,178 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>7228979800008</t>
+          <t>7228101600001</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>no log</t>
+          <t>Value Match</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>7228979800009</t>
+          <t>7228101700001</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>no log</t>
+          <t>Value Match</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>7228101900001</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>7228124100001</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>7228124200002</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>7228124200003</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>7228124200004</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>7228124200005</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>7228124200006</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>7228124200007</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>7228124200008</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>7228124200010</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>7228979800008</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>no log</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>7228979800009</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>no log</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
           <t>7228979800010</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B21" t="inlineStr">
         <is>
           <t>no log</t>
         </is>

--- a/Auto_RRSIandWiFiSAR_Report/output/WillyWJ_Chen/WiFiSARQUERY.xlsx
+++ b/Auto_RRSIandWiFiSAR_Report/output/WillyWJ_Chen/WiFiSARQUERY.xlsx
@@ -526,7 +526,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Value Match</t>
+          <t>no log</t>
         </is>
       </c>
     </row>

--- a/Auto_RRSIandWiFiSAR_Report/output/WillyWJ_Chen/WiFiSARQUERY.xlsx
+++ b/Auto_RRSIandWiFiSAR_Report/output/WillyWJ_Chen/WiFiSARQUERY.xlsx
@@ -526,7 +526,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>no log</t>
+          <t>Value Match</t>
         </is>
       </c>
     </row>

--- a/Auto_RRSIandWiFiSAR_Report/output/WillyWJ_Chen/WiFiSARQUERY.xlsx
+++ b/Auto_RRSIandWiFiSAR_Report/output/WillyWJ_Chen/WiFiSARQUERY.xlsx
@@ -502,7 +502,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Value Match</t>
+          <t>no log</t>
         </is>
       </c>
     </row>

--- a/Auto_RRSIandWiFiSAR_Report/output/WillyWJ_Chen/WiFiSARQUERY.xlsx
+++ b/Auto_RRSIandWiFiSAR_Report/output/WillyWJ_Chen/WiFiSARQUERY.xlsx
@@ -502,7 +502,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>no log</t>
+          <t>Value Match</t>
         </is>
       </c>
     </row>

--- a/Auto_RRSIandWiFiSAR_Report/output/WillyWJ_Chen/WiFiSARQUERY.xlsx
+++ b/Auto_RRSIandWiFiSAR_Report/output/WillyWJ_Chen/WiFiSARQUERY.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="wifisarquery" sheetId="1" state="visible" r:id="rId1"/>
@@ -52,16 +52,16 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -430,8 +430,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="16"/>
-    <col customWidth="1" max="2" min="2" width="14"/>
+    <col width="16" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -449,55 +449,55 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>7224908800005</t>
+          <t>7228124300036</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>no log</t>
+          <t>Value Match</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>7224908800006</t>
+          <t>7228124300026</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>no log</t>
+          <t>Value Match</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>7224908800007</t>
+          <t>7228124200065</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>no log</t>
+          <t>Value Match</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>7228101300001</t>
+          <t>7228979800008</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Value Match</t>
+          <t>no log</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>7228101400001</t>
+          <t>7228124200054</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -509,7 +509,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>7228101600001</t>
+          <t>7228124200012</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -521,7 +521,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>7228101700001</t>
+          <t>7228124300034</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -533,7 +533,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>7228101900001</t>
+          <t>7228124200036</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -545,7 +545,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>7228124100001</t>
+          <t>7228124300076</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -557,7 +557,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>7228124200002</t>
+          <t>7228124300006</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -569,7 +569,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>7228124200003</t>
+          <t>7228124200006</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -581,7 +581,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>7228124200004</t>
+          <t>7228124300012</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -593,7 +593,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>7228124200005</t>
+          <t>7228124200010</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -605,7 +605,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>7228124200006</t>
+          <t>7228124200029</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -617,7 +617,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>7228124200007</t>
+          <t>7228124200025</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -629,7 +629,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>7228124200008</t>
+          <t>7228124300010</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -641,7 +641,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>7228124200010</t>
+          <t>7228124300077</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -653,7 +653,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>7228124200012</t>
+          <t>7228124300074</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -665,7 +665,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>7228124200013</t>
+          <t>7228124300081</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -677,7 +677,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>7228124200014</t>
+          <t>7228124200033</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -689,7 +689,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>7228124200017</t>
+          <t>7228124300050</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -701,7 +701,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>7228124200018</t>
+          <t>7228124300067</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -713,7 +713,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>7228124200019</t>
+          <t>7228124300058</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -725,7 +725,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>7228124200020</t>
+          <t>7228125100001</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -737,7 +737,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>7228124200021</t>
+          <t>7228124300011</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -749,7 +749,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>7228124200022</t>
+          <t>7228124200043</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -761,7 +761,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>7228124200023</t>
+          <t>7228124200008</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -773,7 +773,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>7228124200024</t>
+          <t>7228124200003</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -785,7 +785,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>7228124200025</t>
+          <t>7228124200060</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -797,7 +797,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>7228124200026</t>
+          <t>7228101900001</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -809,7 +809,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>7228124200027</t>
+          <t>7228124200059</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -833,7 +833,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>7228124200029</t>
+          <t>7228124200038</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -845,7 +845,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>7228124200030</t>
+          <t>7228124300009</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -857,7 +857,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>7228124200031</t>
+          <t>7228124300053</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -869,7 +869,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>7228124200033</t>
+          <t>7228124300084</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -881,7 +881,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>7228124200034</t>
+          <t>7228124200039</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -893,7 +893,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>7228124200035</t>
+          <t>7228124200018</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -905,7 +905,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>7228124200036</t>
+          <t>7228124200002</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -917,7 +917,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>7228124200037</t>
+          <t>7228124200019</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -929,7 +929,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>7228124200038</t>
+          <t>7228124200067</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -941,7 +941,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>7228124200039</t>
+          <t>7228124300069</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -953,7 +953,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>7228124200040</t>
+          <t>7228124200004</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -965,7 +965,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>7228124200041</t>
+          <t>7228124300033</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -977,7 +977,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>7228124200042</t>
+          <t>7228124300035</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -989,7 +989,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>7228124200043</t>
+          <t>7228124300016</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1001,7 +1001,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>7228124200044</t>
+          <t>7228124200040</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1013,19 +1013,19 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>7228124200045</t>
+          <t>7224908800005</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Value Match</t>
+          <t>no log</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>7228124200046</t>
+          <t>7228124200042</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1037,7 +1037,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>7228124200047</t>
+          <t>7228124300028</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1049,7 +1049,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>7228124200048</t>
+          <t>7228124200052</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1061,7 +1061,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>7228124200049</t>
+          <t>7228124300057</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1085,7 +1085,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>7228124200052</t>
+          <t>7228124200037</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1097,7 +1097,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>7228124200053</t>
+          <t>7228124200076</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1109,7 +1109,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>7228124200054</t>
+          <t>7228124200084</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1121,7 +1121,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>7228124200055</t>
+          <t>7228101600001</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1133,7 +1133,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>7228124200056</t>
+          <t>7228124300032</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1145,7 +1145,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>7228124200057</t>
+          <t>7228124200005</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1157,7 +1157,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>7228124200058</t>
+          <t>7228124200062</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1169,7 +1169,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>7228124200059</t>
+          <t>7228124200014</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1181,7 +1181,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>7228124200060</t>
+          <t>7228124200080</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1193,7 +1193,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>7228124200061</t>
+          <t>7228124200057</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1205,7 +1205,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>7228124200062</t>
+          <t>7228124300063</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1217,7 +1217,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>7228124200064</t>
+          <t>7228124200077</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -1229,7 +1229,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>7228124200065</t>
+          <t>7228124200048</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -1241,7 +1241,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>7228124200066</t>
+          <t>7228124300030</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -1253,7 +1253,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>7228124200067</t>
+          <t>7228124300062</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -1265,7 +1265,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>7228124200068</t>
+          <t>7228101300001</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -1277,7 +1277,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>7228124200069</t>
+          <t>7228124200066</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -1289,7 +1289,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>7228124200070</t>
+          <t>7228124200082</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -1301,7 +1301,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>7228124200071</t>
+          <t>7228124200020</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -1313,7 +1313,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>7228124200075</t>
+          <t>7228124200044</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -1325,7 +1325,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>7228124200076</t>
+          <t>7228124300024</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -1337,7 +1337,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>7228124200077</t>
+          <t>7228124200021</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -1349,7 +1349,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>7228124200078</t>
+          <t>7228124200058</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -1361,19 +1361,19 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>7228124200079</t>
+          <t>7224908800006</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Value Match</t>
+          <t>no log</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>7228124200080</t>
+          <t>7228124200068</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -1385,7 +1385,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>7228124200081</t>
+          <t>7228124300073</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -1397,7 +1397,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>7228124200082</t>
+          <t>7228124200078</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -1409,7 +1409,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>7228124200084</t>
+          <t>7228101400001</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -1421,7 +1421,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>7228124200085</t>
+          <t>7228124200056</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -1433,7 +1433,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>7228124300002</t>
+          <t>7228124200070</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -1445,7 +1445,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>7228124300003</t>
+          <t>7228124300025</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -1457,7 +1457,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>7228124300006</t>
+          <t>7228124300015</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -1469,7 +1469,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>7228124300009</t>
+          <t>7228124200085</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -1481,19 +1481,19 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>7228124300010</t>
+          <t>7224908800007</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Value Match</t>
+          <t>no log</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>7228124300011</t>
+          <t>7228124300020</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -1505,7 +1505,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>7228124300012</t>
+          <t>7228124300019</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -1517,7 +1517,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>7228124300013</t>
+          <t>7228124200061</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -1529,7 +1529,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>7228124300014</t>
+          <t>7228124300002</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -1541,7 +1541,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>7228124300015</t>
+          <t>7228124200041</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -1553,7 +1553,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>7228124300016</t>
+          <t>7228124300068</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -1565,7 +1565,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>7228124300018</t>
+          <t>7228124300031</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -1577,7 +1577,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>7228124300019</t>
+          <t>7228124300013</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -1589,7 +1589,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>7228124300020</t>
+          <t>7228124300056</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -1601,7 +1601,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>7228124300023</t>
+          <t>7228124200035</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -1613,19 +1613,19 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>7228124300024</t>
+          <t>7228979800009</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Value Match</t>
+          <t>no log</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>7228124300025</t>
+          <t>7228124300054</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -1637,7 +1637,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>7228124300026</t>
+          <t>7228124200031</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -1649,7 +1649,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>7228124300028</t>
+          <t>7228124300041</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -1661,7 +1661,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>7228124300029</t>
+          <t>7228124200026</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -1673,7 +1673,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>7228124300030</t>
+          <t>7228124300039</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -1685,7 +1685,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>7228124300031</t>
+          <t>7228124300037</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -1697,7 +1697,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>7228124300032</t>
+          <t>7228124300061</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -1709,7 +1709,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>7228124300033</t>
+          <t>7228124200046</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -1721,7 +1721,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>7228124300034</t>
+          <t>7228124200075</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -1733,7 +1733,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>7228124300035</t>
+          <t>7228124300003</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -1745,7 +1745,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>7228124300036</t>
+          <t>7228124300029</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -1757,7 +1757,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>7228124300037</t>
+          <t>7228124300082</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -1769,7 +1769,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>7228124300038</t>
+          <t>7228124200023</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -1781,7 +1781,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>7228124300039</t>
+          <t>7228124300060</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -1793,7 +1793,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>7228124300040</t>
+          <t>7228124200049</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -1805,7 +1805,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>7228124300041</t>
+          <t>7228101700001</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -1817,7 +1817,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>7228124300042</t>
+          <t>7228124300023</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -1829,7 +1829,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>7228124300045</t>
+          <t>7228124300086</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -1841,7 +1841,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>7228124300047</t>
+          <t>7228124300059</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -1853,7 +1853,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>7228124300048</t>
+          <t>7228124200079</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -1865,7 +1865,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>7228124300049</t>
+          <t>7228124100001</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -1877,7 +1877,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>7228124300050</t>
+          <t>7228124200081</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -1889,19 +1889,19 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>7228124300051</t>
+          <t>7228979800010</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Value Match</t>
+          <t>no log</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>7228124300053</t>
+          <t>7228124300045</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -1913,7 +1913,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>7228124300054</t>
+          <t>7228124300038</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -1925,7 +1925,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>7228124300055</t>
+          <t>7228124200047</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -1937,7 +1937,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>7228124300056</t>
+          <t>7228124200013</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -1949,7 +1949,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>7228124300057</t>
+          <t>7228124200022</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -1961,7 +1961,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>7228124300058</t>
+          <t>7228124300047</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -1973,7 +1973,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>7228124300059</t>
+          <t>7228124300014</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -1985,7 +1985,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>7228124300060</t>
+          <t>7228124300018</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -1997,7 +1997,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>7228124300061</t>
+          <t>7228124200069</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -2009,7 +2009,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>7228124300062</t>
+          <t>7228124300065</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -2021,7 +2021,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>7228124300063</t>
+          <t>7228124200007</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -2033,7 +2033,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>7228124300065</t>
+          <t>7228124200045</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -2045,7 +2045,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>7228124300066</t>
+          <t>7228124200024</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -2057,7 +2057,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>7228124300067</t>
+          <t>7228124200034</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -2069,7 +2069,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>7228124300068</t>
+          <t>7228124200053</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -2081,7 +2081,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>7228124300069</t>
+          <t>7228124300040</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -2093,7 +2093,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>7228124300073</t>
+          <t>7228124300042</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -2105,7 +2105,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>7228124300074</t>
+          <t>7228124200027</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -2117,7 +2117,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>7228124300076</t>
+          <t>7228124200064</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -2129,7 +2129,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>7228124300077</t>
+          <t>7228124300051</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -2141,7 +2141,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>7228124300078</t>
+          <t>7228124300066</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -2153,7 +2153,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>7228124300081</t>
+          <t>7228124200071</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -2165,7 +2165,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>7228124300082</t>
+          <t>7228124200055</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -2177,7 +2177,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>7228124300083</t>
+          <t>7228124200030</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -2189,7 +2189,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>7228124300084</t>
+          <t>7228124300048</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -2201,7 +2201,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>7228124300086</t>
+          <t>7228124300049</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -2213,7 +2213,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>7228125100001</t>
+          <t>7228124300055</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -2225,40 +2225,40 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>7228979800008</t>
+          <t>7228124300078</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>no log</t>
+          <t>Value Match</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>7228979800009</t>
+          <t>7228124300083</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>no log</t>
+          <t>Value Match</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>7228979800010</t>
+          <t>7228124200017</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>no log</t>
+          <t>Value Match</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Auto_RRSIandWiFiSAR_Report/output/WillyWJ_Chen/WiFiSARQUERY.xlsx
+++ b/Auto_RRSIandWiFiSAR_Report/output/WillyWJ_Chen/WiFiSARQUERY.xlsx
@@ -422,7 +422,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B266"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -431,7 +431,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="16" customWidth="1" min="1" max="1"/>
-    <col width="9" customWidth="1" min="2" max="2"/>
+    <col width="18" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -454,7 +454,3175 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>7242218100015</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>7242218100012</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>7242218200038</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>7242218700042</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>7242213600019</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>7242213600045</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>7242213400072</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>7242213400015</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>7242218700030</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>7242218500005</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>7242213700002</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>7242218300012</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>7242218200010</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>7242218700043</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>7242213600021</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>7242218600030</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>7242213700005</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
           <t>no log</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>7242213600030</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>7242257600007</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>7242213400040</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>7242218700019</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>7242218300037</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>7242213600004</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>7242218200026</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>7242214000019</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>7242218200032</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>7242213600006</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>7242214000003</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>7242218700024</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>7242213400009</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>7242218100006</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>7242213700001</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>7242213600029</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>7242213600017</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>7242218100034</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>7242213400028</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>7242219000004</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>7242218600001</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>7242213600041</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>7242213600010</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>7242218600006</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>7242218600011</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>7242218700011</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>7242218300035</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>7242218200002</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>7242218700027</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>7242213600009</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>7242257600003</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>7242218600002</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>7242213400047</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>7242213600032</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>7242214000008</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>7242214000034</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>7242257600004</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>7242213700028</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>7242218700018</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>7242213400018</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>7242218100016</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>7242213600047</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>7242218600010</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>7242218300038</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>7242213700016</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>7242218200017</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>7242218100045</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>7242257600020</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>7242218600037</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>7242218900006</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>7242214000016</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>7242218200003</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>7242213600025</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>7242213600031</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>7242218600008</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>7242218100001</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>7242218100005</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>7242218600007</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>7242218400002</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>7242213400016</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>7242213600040</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>7242218600019</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>7242213400039</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>7242219000003</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>7242214000004</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>7242218900008</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>7242218200015</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>7242213500034</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>7242218200007</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>7242218100003</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>7242218600013</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>7242213400033</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>7242213700024</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>7242213700026</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>7242213400006</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>7242257600015</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>7242213600042</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>7242213600024</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>7242257600018</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>7242218300021</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>7242218700005</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>7242218700036</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>7242218200035</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>7242218200039</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Value Not Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>7242218100026</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>7242218100035</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>7242213600048</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>no log</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>7242218600034</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>7242218300010</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>7242218300022</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>7242218100010</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>7242218200014</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>7242218700016</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>7242213500020</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>7242218200016</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>7242213500016</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>7242213600022</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>7242218600026</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>7242218700020</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>7242218200028</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>7242213400076</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>7242214000010</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>7242257600009</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>7242214000025</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>7242213600044</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>7242213600003</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>7242218400006</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>7242218100013</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>7242218400004</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>7242218700010</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>7242213600013</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>7242257600014</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>7242213700004</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>7242213400062</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>7242213600028</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>7242218100037</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>7242213400065</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>7242213600005</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>7242213700006</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>7242219000005</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>7242213400058</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>7242218700032</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>7242218200008</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>7242257600001</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>7242213400077</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>7242218200004</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>7242213700018</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>7242213700009</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>7242218300002</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>7242218300030</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>7242218200011</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>7242213500025</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>7242213400067</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>7242213400048</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>7242218200006</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>7242213600007</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>7242214000026</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>7242218300029</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>7242218100029</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>7242213400054</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>7242218300036</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>7242218400001</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>7242213600023</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>7242218700008</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>7242214000006</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>7242213700021</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>7242213500023</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>no log</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>7242213400043</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>7242218200023</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>7242257600019</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>7242218100042</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>7242218200030</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>7242218300025</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>7242213600033</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>7242218100007</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>7242213700033</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>7242218600018</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>7242214000017</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>7242218700015</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>7242213600014</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>7242213600020</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>7242218100002</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>7242213500010</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>7242218100019</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>7242218600005</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>7242218600031</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>7242213600038</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>7242218100025</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>7242213500019</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>7242218100033</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>7242213500032</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>7242213500033</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>no log</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>7242213700029</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>7242218700035</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>7242218700031</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>7242213700023</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>7242213700031</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>7242213700008</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>7242218200012</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>7242218600024</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>7242218100038</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>7242257600017</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>7242218300024</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>7242218600025</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>7242218700013</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>7242218100031</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>7242213700025</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>7242218200021</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>7242213400052</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>7242213500026</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>7242218600004</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>7242214000020</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>7242218500004</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>7242218700004</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>7242218700014</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>7242213700011</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>7242257600016</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>7242213700030</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>7242218300014</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>7242218600033</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>7242218700026</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>7242218300028</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>7242218300031</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>7242214000021</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>7242213400050</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>7242218200013</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>7242218300039</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>7242218300027</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>7242218700007</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>7242218700009</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>7242218700037</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>7242218900005</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>7242213400014</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>7242218600014</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>7242218700041</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>7242218300015</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>7242257600010</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>7242213400042</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>7242213600026</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>7242218200009</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>7242213600046</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>7242213600016</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>7242213500013</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>7242213800007</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>no log</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>7242213600002</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>7242213400003</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>7242218400003</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>7242213600008</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>7242218300005</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>7242213400034</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>7242213600037</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>7242213600027</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>7242218300006</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>7242214000013</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>7242218700038</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>7242218700040</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>7242218700021</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>7242213600018</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>7242218700025</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>7242218600012</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>7242218700034</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>7242213400019</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>7242218200040</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>Value Not Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>7242257600012</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>7242213400010</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>7242218200037</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>7242218700033</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>Value Match</t>
         </is>
       </c>
     </row>

--- a/Auto_RRSIandWiFiSAR_Report/output/WillyWJ_Chen/WiFiSARQUERY.xlsx
+++ b/Auto_RRSIandWiFiSAR_Report/output/WillyWJ_Chen/WiFiSARQUERY.xlsx
@@ -422,7 +422,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B266"/>
+  <dimension ref="A1:B152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,7 +449,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>7242218700023</t>
+          <t>7228124300036</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -461,7 +461,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>7242218100015</t>
+          <t>7228124300026</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -473,7 +473,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>7242218100012</t>
+          <t>7228124200065</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -485,19 +485,19 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>7242218200038</t>
+          <t>7228979800008</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Value Match</t>
+          <t>no log</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>7242218700042</t>
+          <t>7228124200054</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -509,7 +509,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>7242213600019</t>
+          <t>7228124200012</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -521,7 +521,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>7242213600045</t>
+          <t>7228124300034</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -533,7 +533,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>7242213400072</t>
+          <t>7228124200036</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -545,7 +545,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>7242213400015</t>
+          <t>7228124300076</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -557,7 +557,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>7242218700030</t>
+          <t>7228124300006</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -569,7 +569,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>7242218500005</t>
+          <t>7228124200006</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -581,7 +581,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>7242213700002</t>
+          <t>7228124300012</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -593,7 +593,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>7242218300012</t>
+          <t>7228124200010</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -605,7 +605,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>7242218200010</t>
+          <t>7228124200029</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -617,7 +617,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>7242218700043</t>
+          <t>7228124200025</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -629,7 +629,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>7242213600021</t>
+          <t>7228124300010</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -641,7 +641,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>7242218600030</t>
+          <t>7228124300077</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -653,19 +653,19 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>7242213700005</t>
+          <t>7228124300074</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>no log</t>
+          <t>Value Match</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>7242213600030</t>
+          <t>7228124300081</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -677,7 +677,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>7242257600007</t>
+          <t>7228124200033</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -689,7 +689,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>7242213400040</t>
+          <t>7228124300050</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -701,7 +701,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>7242218700019</t>
+          <t>7228124300067</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -713,7 +713,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>7242218300037</t>
+          <t>7228124300058</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -725,7 +725,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>7242213600004</t>
+          <t>7228125100001</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -737,7 +737,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>7242218200026</t>
+          <t>7228124300011</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -749,7 +749,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>7242214000019</t>
+          <t>7228124200043</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -761,7 +761,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>7242218200032</t>
+          <t>7228124200008</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -773,7 +773,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>7242213600006</t>
+          <t>7228124200003</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -785,7 +785,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>7242214000003</t>
+          <t>7228124200060</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -797,7 +797,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>7242218700024</t>
+          <t>7228101900001</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -809,7 +809,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>7242213400009</t>
+          <t>7228124200059</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -821,7 +821,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>7242218100006</t>
+          <t>7228124200028</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -833,7 +833,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>7242213700001</t>
+          <t>7228124200038</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -845,7 +845,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>7242213600029</t>
+          <t>7228124300009</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -857,7 +857,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>7242213600017</t>
+          <t>7228124300053</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -869,7 +869,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>7242218100034</t>
+          <t>7228124300084</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -881,7 +881,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>7242213400028</t>
+          <t>7228124200039</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -893,7 +893,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>7242219000004</t>
+          <t>7228124200018</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -905,7 +905,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>7242218600001</t>
+          <t>7228124200002</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -917,7 +917,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>7242213600041</t>
+          <t>7228124200019</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -929,7 +929,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>7242213600010</t>
+          <t>7228124200067</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -941,7 +941,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>7242218600006</t>
+          <t>7228124300069</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -953,7 +953,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>7242218600011</t>
+          <t>7228124200004</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -965,7 +965,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>7242218700011</t>
+          <t>7228124300033</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -977,7 +977,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>7242218300035</t>
+          <t>7228124300035</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -989,7 +989,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>7242218200002</t>
+          <t>7228124300016</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1001,7 +1001,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>7242218700027</t>
+          <t>7228124200040</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1013,19 +1013,19 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>7242213600009</t>
+          <t>7224908800005</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Value Match</t>
+          <t>Value Not Match</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>7242257600003</t>
+          <t>7228124200042</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1037,7 +1037,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>7242218600002</t>
+          <t>7228124300028</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1049,7 +1049,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>7242213400047</t>
+          <t>7228124200052</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1061,7 +1061,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>7242213600032</t>
+          <t>7228124300057</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1073,7 +1073,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>7242214000008</t>
+          <t>7228124200051</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1085,7 +1085,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>7242214000034</t>
+          <t>7228124200037</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1097,7 +1097,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>7242257600004</t>
+          <t>7228124200076</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1109,7 +1109,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>7242213700028</t>
+          <t>7228124200084</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1121,7 +1121,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>7242218700018</t>
+          <t>7228101600001</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1133,7 +1133,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>7242213400018</t>
+          <t>7228124300032</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1145,7 +1145,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>7242218100016</t>
+          <t>7228124200005</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1157,7 +1157,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>7242213600047</t>
+          <t>7228124200062</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1169,7 +1169,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>7242218600010</t>
+          <t>7228124200014</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1181,7 +1181,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>7242218300038</t>
+          <t>7228124200080</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1193,7 +1193,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>7242213700016</t>
+          <t>7228124200057</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1205,7 +1205,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>7242218200017</t>
+          <t>7228124300063</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1217,7 +1217,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>7242218100045</t>
+          <t>7228124200077</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -1229,7 +1229,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>7242257600020</t>
+          <t>7228124200048</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -1241,7 +1241,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>7242218600037</t>
+          <t>7228124300030</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -1253,7 +1253,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>7242218900006</t>
+          <t>7228124300062</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -1265,7 +1265,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>7242214000016</t>
+          <t>7228101300001</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -1277,7 +1277,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>7242218200003</t>
+          <t>7228124200066</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -1289,7 +1289,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>7242213600025</t>
+          <t>7228124200082</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -1301,7 +1301,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>7242213600031</t>
+          <t>7228124200020</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -1313,7 +1313,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>7242218600008</t>
+          <t>7228124200044</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -1325,7 +1325,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>7242218100001</t>
+          <t>7228124300024</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -1337,7 +1337,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>7242218100005</t>
+          <t>7228124200021</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -1349,7 +1349,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>7242218600007</t>
+          <t>7228124200058</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -1361,19 +1361,19 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>7242218400002</t>
+          <t>7224908800006</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Value Match</t>
+          <t>Value Not Match</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>7242213400016</t>
+          <t>7228124200068</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -1385,7 +1385,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>7242213600040</t>
+          <t>7228124300073</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -1397,7 +1397,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>7242218600019</t>
+          <t>7228124200078</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -1409,7 +1409,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>7242213400039</t>
+          <t>7228101400001</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -1421,7 +1421,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>7242219000003</t>
+          <t>7228124200056</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -1433,7 +1433,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>7242214000004</t>
+          <t>7228124200070</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -1445,7 +1445,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>7242218900008</t>
+          <t>7228124300025</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -1457,7 +1457,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>7242218200015</t>
+          <t>7228124300015</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -1469,7 +1469,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>7242213500034</t>
+          <t>7228124200085</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -1481,19 +1481,19 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>7242218200007</t>
+          <t>7224908800007</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Value Match</t>
+          <t>Value Not Match</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>7242218100003</t>
+          <t>7228124300020</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -1505,7 +1505,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>7242218600013</t>
+          <t>7228124300019</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -1517,7 +1517,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>7242213400033</t>
+          <t>7228124200061</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -1529,7 +1529,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>7242213700024</t>
+          <t>7228124300002</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -1541,7 +1541,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>7242213700026</t>
+          <t>7228124200041</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -1553,7 +1553,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>7242213400006</t>
+          <t>7228124300068</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -1565,7 +1565,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>7242257600015</t>
+          <t>7228124300031</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -1577,7 +1577,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>7242213600042</t>
+          <t>7228124300013</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -1589,7 +1589,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>7242213600024</t>
+          <t>7228124300056</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -1601,7 +1601,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>7242257600018</t>
+          <t>7228124200035</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -1613,19 +1613,19 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>7242218300021</t>
+          <t>7228979800009</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Value Match</t>
+          <t>no log</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>7242218700005</t>
+          <t>7228124300054</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -1637,7 +1637,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>7242218700036</t>
+          <t>7228124200031</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -1649,7 +1649,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>7242218200035</t>
+          <t>7228124300041</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -1661,19 +1661,19 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>7242218200039</t>
+          <t>7228124200026</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Value Not Match</t>
+          <t>Value Match</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>7242218100026</t>
+          <t>7228124300039</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -1685,7 +1685,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>7242218100035</t>
+          <t>7228124300037</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -1697,19 +1697,19 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>7242213600048</t>
+          <t>7228124300061</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>no log</t>
+          <t>Value Match</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>7242218600034</t>
+          <t>7228124200046</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -1721,7 +1721,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>7242218300010</t>
+          <t>7228124200075</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -1733,7 +1733,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>7242218300022</t>
+          <t>7228124300003</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -1745,7 +1745,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>7242218100010</t>
+          <t>7228124300029</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -1757,7 +1757,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>7242218200014</t>
+          <t>7228124300082</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -1769,7 +1769,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>7242218700016</t>
+          <t>7228124200023</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -1781,7 +1781,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>7242213500020</t>
+          <t>7228124300060</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -1793,7 +1793,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>7242218200016</t>
+          <t>7228124200049</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -1805,7 +1805,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>7242213500016</t>
+          <t>7228101700001</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -1817,7 +1817,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>7242213600022</t>
+          <t>7228124300023</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -1829,7 +1829,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>7242218600026</t>
+          <t>7228124300086</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -1841,7 +1841,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>7242218700020</t>
+          <t>7228124300059</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -1853,7 +1853,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>7242218200028</t>
+          <t>7228124200079</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -1865,7 +1865,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>7242213400076</t>
+          <t>7228124100001</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -1877,7 +1877,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>7242214000010</t>
+          <t>7228124200081</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -1889,19 +1889,19 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>7242257600009</t>
+          <t>7228979800010</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Value Match</t>
+          <t>no log</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>7242214000025</t>
+          <t>7228124300045</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -1913,7 +1913,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>7242213600044</t>
+          <t>7228124300038</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -1925,7 +1925,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>7242213600003</t>
+          <t>7228124200047</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -1937,7 +1937,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>7242218400006</t>
+          <t>7228124200013</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -1949,7 +1949,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>7242218100013</t>
+          <t>7228124200022</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -1961,7 +1961,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>7242218400004</t>
+          <t>7228124300047</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -1973,7 +1973,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>7242218700010</t>
+          <t>7228124300014</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -1985,7 +1985,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>7242213600013</t>
+          <t>7228124300018</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -1997,7 +1997,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>7242257600014</t>
+          <t>7228124200069</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -2009,7 +2009,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>7242213700004</t>
+          <t>7228124300065</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -2021,7 +2021,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>7242213400062</t>
+          <t>7228124200007</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -2033,7 +2033,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>7242213600028</t>
+          <t>7228124200045</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -2045,7 +2045,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>7242218100037</t>
+          <t>7228124200024</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -2057,7 +2057,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>7242213400065</t>
+          <t>7228124200034</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -2069,7 +2069,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>7242213600005</t>
+          <t>7228124200053</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -2081,7 +2081,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>7242213700006</t>
+          <t>7228124300040</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -2093,7 +2093,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>7242219000005</t>
+          <t>7228124300042</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -2105,7 +2105,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>7242213400058</t>
+          <t>7228124200027</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -2117,7 +2117,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>7242218700032</t>
+          <t>7228124200064</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -2129,7 +2129,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>7242218200008</t>
+          <t>7228124300051</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -2141,7 +2141,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>7242257600001</t>
+          <t>7228124300066</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -2153,7 +2153,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>7242213400077</t>
+          <t>7228124200071</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -2165,7 +2165,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>7242218200004</t>
+          <t>7228124200055</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -2177,7 +2177,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>7242213700018</t>
+          <t>7228124200030</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -2189,7 +2189,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>7242213700009</t>
+          <t>7228124300048</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -2201,7 +2201,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>7242218300002</t>
+          <t>7228124300049</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -2213,7 +2213,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>7242218300030</t>
+          <t>7228124300055</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -2225,7 +2225,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>7242218200011</t>
+          <t>7228124300078</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -2237,7 +2237,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>7242213500025</t>
+          <t>7228124300083</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -2249,1378 +2249,10 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>7242213400067</t>
+          <t>7228124200017</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
-        <is>
-          <t>Value Match</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>7242213400048</t>
-        </is>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>Value Match</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>7242218200006</t>
-        </is>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>Value Match</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>7242213600007</t>
-        </is>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>Value Match</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>7242214000026</t>
-        </is>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>Value Match</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>7242218300029</t>
-        </is>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>Value Match</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>7242218100029</t>
-        </is>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>Value Match</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>7242213400054</t>
-        </is>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>Value Match</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>7242218300036</t>
-        </is>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>Value Match</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t>7242218400001</t>
-        </is>
-      </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>Value Match</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>7242213600023</t>
-        </is>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>Value Match</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>7242218700008</t>
-        </is>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>Value Match</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>7242214000006</t>
-        </is>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>Value Match</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>7242213700021</t>
-        </is>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>Value Match</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t>7242213500023</t>
-        </is>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>no log</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t>7242213400043</t>
-        </is>
-      </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>Value Match</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>7242218200023</t>
-        </is>
-      </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>Value Match</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>7242257600019</t>
-        </is>
-      </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>Value Match</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>7242218100042</t>
-        </is>
-      </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>Value Match</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="inlineStr">
-        <is>
-          <t>7242218200030</t>
-        </is>
-      </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>Value Match</t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="inlineStr">
-        <is>
-          <t>7242218300025</t>
-        </is>
-      </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>Value Match</t>
-        </is>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="inlineStr">
-        <is>
-          <t>7242213600033</t>
-        </is>
-      </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>Value Match</t>
-        </is>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="inlineStr">
-        <is>
-          <t>7242218100007</t>
-        </is>
-      </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>Value Match</t>
-        </is>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="inlineStr">
-        <is>
-          <t>7242213700033</t>
-        </is>
-      </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>Value Match</t>
-        </is>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="inlineStr">
-        <is>
-          <t>7242218600018</t>
-        </is>
-      </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>Value Match</t>
-        </is>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="inlineStr">
-        <is>
-          <t>7242214000017</t>
-        </is>
-      </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>Value Match</t>
-        </is>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="inlineStr">
-        <is>
-          <t>7242218700015</t>
-        </is>
-      </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>Value Match</t>
-        </is>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="inlineStr">
-        <is>
-          <t>7242213600014</t>
-        </is>
-      </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>Value Match</t>
-        </is>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="inlineStr">
-        <is>
-          <t>7242213600020</t>
-        </is>
-      </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>Value Match</t>
-        </is>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="inlineStr">
-        <is>
-          <t>7242218100002</t>
-        </is>
-      </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>Value Match</t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="inlineStr">
-        <is>
-          <t>7242213500010</t>
-        </is>
-      </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>Value Match</t>
-        </is>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="inlineStr">
-        <is>
-          <t>7242218100019</t>
-        </is>
-      </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>Value Match</t>
-        </is>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="inlineStr">
-        <is>
-          <t>7242218600005</t>
-        </is>
-      </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>Value Match</t>
-        </is>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="inlineStr">
-        <is>
-          <t>7242218600031</t>
-        </is>
-      </c>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>Value Match</t>
-        </is>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="inlineStr">
-        <is>
-          <t>7242213600038</t>
-        </is>
-      </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>Value Match</t>
-        </is>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="inlineStr">
-        <is>
-          <t>7242218100025</t>
-        </is>
-      </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>Value Match</t>
-        </is>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="inlineStr">
-        <is>
-          <t>7242213500019</t>
-        </is>
-      </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>Value Match</t>
-        </is>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="inlineStr">
-        <is>
-          <t>7242218100033</t>
-        </is>
-      </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>Value Match</t>
-        </is>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="inlineStr">
-        <is>
-          <t>7242213500032</t>
-        </is>
-      </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>Value Match</t>
-        </is>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="inlineStr">
-        <is>
-          <t>7242213500033</t>
-        </is>
-      </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>no log</t>
-        </is>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="inlineStr">
-        <is>
-          <t>7242213700029</t>
-        </is>
-      </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>Value Match</t>
-        </is>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="inlineStr">
-        <is>
-          <t>7242218700035</t>
-        </is>
-      </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>Value Match</t>
-        </is>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="inlineStr">
-        <is>
-          <t>7242218700031</t>
-        </is>
-      </c>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>Value Match</t>
-        </is>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="inlineStr">
-        <is>
-          <t>7242213700023</t>
-        </is>
-      </c>
-      <c r="B195" t="inlineStr">
-        <is>
-          <t>Value Match</t>
-        </is>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="inlineStr">
-        <is>
-          <t>7242213700031</t>
-        </is>
-      </c>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>Value Match</t>
-        </is>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="inlineStr">
-        <is>
-          <t>7242213700008</t>
-        </is>
-      </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>Value Match</t>
-        </is>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="inlineStr">
-        <is>
-          <t>7242218200012</t>
-        </is>
-      </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>Value Match</t>
-        </is>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="inlineStr">
-        <is>
-          <t>7242218600024</t>
-        </is>
-      </c>
-      <c r="B199" t="inlineStr">
-        <is>
-          <t>Value Match</t>
-        </is>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="inlineStr">
-        <is>
-          <t>7242218100038</t>
-        </is>
-      </c>
-      <c r="B200" t="inlineStr">
-        <is>
-          <t>Value Match</t>
-        </is>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="inlineStr">
-        <is>
-          <t>7242257600017</t>
-        </is>
-      </c>
-      <c r="B201" t="inlineStr">
-        <is>
-          <t>Value Match</t>
-        </is>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" t="inlineStr">
-        <is>
-          <t>7242218300024</t>
-        </is>
-      </c>
-      <c r="B202" t="inlineStr">
-        <is>
-          <t>Value Match</t>
-        </is>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="inlineStr">
-        <is>
-          <t>7242218600025</t>
-        </is>
-      </c>
-      <c r="B203" t="inlineStr">
-        <is>
-          <t>Value Match</t>
-        </is>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="inlineStr">
-        <is>
-          <t>7242218700013</t>
-        </is>
-      </c>
-      <c r="B204" t="inlineStr">
-        <is>
-          <t>Value Match</t>
-        </is>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="inlineStr">
-        <is>
-          <t>7242218100031</t>
-        </is>
-      </c>
-      <c r="B205" t="inlineStr">
-        <is>
-          <t>Value Match</t>
-        </is>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="inlineStr">
-        <is>
-          <t>7242213700025</t>
-        </is>
-      </c>
-      <c r="B206" t="inlineStr">
-        <is>
-          <t>Value Match</t>
-        </is>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="inlineStr">
-        <is>
-          <t>7242218200021</t>
-        </is>
-      </c>
-      <c r="B207" t="inlineStr">
-        <is>
-          <t>Value Match</t>
-        </is>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="inlineStr">
-        <is>
-          <t>7242213400052</t>
-        </is>
-      </c>
-      <c r="B208" t="inlineStr">
-        <is>
-          <t>Value Match</t>
-        </is>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" t="inlineStr">
-        <is>
-          <t>7242213500026</t>
-        </is>
-      </c>
-      <c r="B209" t="inlineStr">
-        <is>
-          <t>Value Match</t>
-        </is>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" t="inlineStr">
-        <is>
-          <t>7242218600004</t>
-        </is>
-      </c>
-      <c r="B210" t="inlineStr">
-        <is>
-          <t>Value Match</t>
-        </is>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" t="inlineStr">
-        <is>
-          <t>7242214000020</t>
-        </is>
-      </c>
-      <c r="B211" t="inlineStr">
-        <is>
-          <t>Value Match</t>
-        </is>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" t="inlineStr">
-        <is>
-          <t>7242218500004</t>
-        </is>
-      </c>
-      <c r="B212" t="inlineStr">
-        <is>
-          <t>Value Match</t>
-        </is>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" t="inlineStr">
-        <is>
-          <t>7242218700004</t>
-        </is>
-      </c>
-      <c r="B213" t="inlineStr">
-        <is>
-          <t>Value Match</t>
-        </is>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" t="inlineStr">
-        <is>
-          <t>7242218700014</t>
-        </is>
-      </c>
-      <c r="B214" t="inlineStr">
-        <is>
-          <t>Value Match</t>
-        </is>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" t="inlineStr">
-        <is>
-          <t>7242213700011</t>
-        </is>
-      </c>
-      <c r="B215" t="inlineStr">
-        <is>
-          <t>Value Match</t>
-        </is>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" t="inlineStr">
-        <is>
-          <t>7242257600016</t>
-        </is>
-      </c>
-      <c r="B216" t="inlineStr">
-        <is>
-          <t>Value Match</t>
-        </is>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" t="inlineStr">
-        <is>
-          <t>7242213700030</t>
-        </is>
-      </c>
-      <c r="B217" t="inlineStr">
-        <is>
-          <t>Value Match</t>
-        </is>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" t="inlineStr">
-        <is>
-          <t>7242218300014</t>
-        </is>
-      </c>
-      <c r="B218" t="inlineStr">
-        <is>
-          <t>Value Match</t>
-        </is>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" t="inlineStr">
-        <is>
-          <t>7242218600033</t>
-        </is>
-      </c>
-      <c r="B219" t="inlineStr">
-        <is>
-          <t>Value Match</t>
-        </is>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" t="inlineStr">
-        <is>
-          <t>7242218700026</t>
-        </is>
-      </c>
-      <c r="B220" t="inlineStr">
-        <is>
-          <t>Value Match</t>
-        </is>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" t="inlineStr">
-        <is>
-          <t>7242218300028</t>
-        </is>
-      </c>
-      <c r="B221" t="inlineStr">
-        <is>
-          <t>Value Match</t>
-        </is>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" t="inlineStr">
-        <is>
-          <t>7242218300031</t>
-        </is>
-      </c>
-      <c r="B222" t="inlineStr">
-        <is>
-          <t>Value Match</t>
-        </is>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" t="inlineStr">
-        <is>
-          <t>7242214000021</t>
-        </is>
-      </c>
-      <c r="B223" t="inlineStr">
-        <is>
-          <t>Value Match</t>
-        </is>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" t="inlineStr">
-        <is>
-          <t>7242213400050</t>
-        </is>
-      </c>
-      <c r="B224" t="inlineStr">
-        <is>
-          <t>Value Match</t>
-        </is>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" t="inlineStr">
-        <is>
-          <t>7242218200013</t>
-        </is>
-      </c>
-      <c r="B225" t="inlineStr">
-        <is>
-          <t>Value Match</t>
-        </is>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" t="inlineStr">
-        <is>
-          <t>7242218300039</t>
-        </is>
-      </c>
-      <c r="B226" t="inlineStr">
-        <is>
-          <t>Value Match</t>
-        </is>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" t="inlineStr">
-        <is>
-          <t>7242218300027</t>
-        </is>
-      </c>
-      <c r="B227" t="inlineStr">
-        <is>
-          <t>Value Match</t>
-        </is>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" t="inlineStr">
-        <is>
-          <t>7242218700007</t>
-        </is>
-      </c>
-      <c r="B228" t="inlineStr">
-        <is>
-          <t>Value Match</t>
-        </is>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" t="inlineStr">
-        <is>
-          <t>7242218700009</t>
-        </is>
-      </c>
-      <c r="B229" t="inlineStr">
-        <is>
-          <t>Value Match</t>
-        </is>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" t="inlineStr">
-        <is>
-          <t>7242218700037</t>
-        </is>
-      </c>
-      <c r="B230" t="inlineStr">
-        <is>
-          <t>Value Match</t>
-        </is>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" t="inlineStr">
-        <is>
-          <t>7242218900005</t>
-        </is>
-      </c>
-      <c r="B231" t="inlineStr">
-        <is>
-          <t>Value Match</t>
-        </is>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" t="inlineStr">
-        <is>
-          <t>7242213400014</t>
-        </is>
-      </c>
-      <c r="B232" t="inlineStr">
-        <is>
-          <t>Value Match</t>
-        </is>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" t="inlineStr">
-        <is>
-          <t>7242218600014</t>
-        </is>
-      </c>
-      <c r="B233" t="inlineStr">
-        <is>
-          <t>Value Match</t>
-        </is>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" t="inlineStr">
-        <is>
-          <t>7242218700041</t>
-        </is>
-      </c>
-      <c r="B234" t="inlineStr">
-        <is>
-          <t>Value Match</t>
-        </is>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" t="inlineStr">
-        <is>
-          <t>7242218300015</t>
-        </is>
-      </c>
-      <c r="B235" t="inlineStr">
-        <is>
-          <t>Value Match</t>
-        </is>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" t="inlineStr">
-        <is>
-          <t>7242257600010</t>
-        </is>
-      </c>
-      <c r="B236" t="inlineStr">
-        <is>
-          <t>Value Match</t>
-        </is>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" t="inlineStr">
-        <is>
-          <t>7242213400042</t>
-        </is>
-      </c>
-      <c r="B237" t="inlineStr">
-        <is>
-          <t>Value Match</t>
-        </is>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" t="inlineStr">
-        <is>
-          <t>7242213600026</t>
-        </is>
-      </c>
-      <c r="B238" t="inlineStr">
-        <is>
-          <t>Value Match</t>
-        </is>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" t="inlineStr">
-        <is>
-          <t>7242218200009</t>
-        </is>
-      </c>
-      <c r="B239" t="inlineStr">
-        <is>
-          <t>Value Match</t>
-        </is>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" t="inlineStr">
-        <is>
-          <t>7242213600046</t>
-        </is>
-      </c>
-      <c r="B240" t="inlineStr">
-        <is>
-          <t>Value Match</t>
-        </is>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" t="inlineStr">
-        <is>
-          <t>7242213600016</t>
-        </is>
-      </c>
-      <c r="B241" t="inlineStr">
-        <is>
-          <t>Value Match</t>
-        </is>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" t="inlineStr">
-        <is>
-          <t>7242213500013</t>
-        </is>
-      </c>
-      <c r="B242" t="inlineStr">
-        <is>
-          <t>Value Match</t>
-        </is>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" t="inlineStr">
-        <is>
-          <t>7242213800007</t>
-        </is>
-      </c>
-      <c r="B243" t="inlineStr">
-        <is>
-          <t>no log</t>
-        </is>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" t="inlineStr">
-        <is>
-          <t>7242213600002</t>
-        </is>
-      </c>
-      <c r="B244" t="inlineStr">
-        <is>
-          <t>Value Match</t>
-        </is>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" t="inlineStr">
-        <is>
-          <t>7242213400003</t>
-        </is>
-      </c>
-      <c r="B245" t="inlineStr">
-        <is>
-          <t>Value Match</t>
-        </is>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" t="inlineStr">
-        <is>
-          <t>7242218400003</t>
-        </is>
-      </c>
-      <c r="B246" t="inlineStr">
-        <is>
-          <t>Value Match</t>
-        </is>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" t="inlineStr">
-        <is>
-          <t>7242213600008</t>
-        </is>
-      </c>
-      <c r="B247" t="inlineStr">
-        <is>
-          <t>Value Match</t>
-        </is>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" t="inlineStr">
-        <is>
-          <t>7242218300005</t>
-        </is>
-      </c>
-      <c r="B248" t="inlineStr">
-        <is>
-          <t>Value Match</t>
-        </is>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" t="inlineStr">
-        <is>
-          <t>7242213400034</t>
-        </is>
-      </c>
-      <c r="B249" t="inlineStr">
-        <is>
-          <t>Value Match</t>
-        </is>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" t="inlineStr">
-        <is>
-          <t>7242213600037</t>
-        </is>
-      </c>
-      <c r="B250" t="inlineStr">
-        <is>
-          <t>Value Match</t>
-        </is>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" t="inlineStr">
-        <is>
-          <t>7242213600027</t>
-        </is>
-      </c>
-      <c r="B251" t="inlineStr">
-        <is>
-          <t>Value Match</t>
-        </is>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" t="inlineStr">
-        <is>
-          <t>7242218300006</t>
-        </is>
-      </c>
-      <c r="B252" t="inlineStr">
-        <is>
-          <t>Value Match</t>
-        </is>
-      </c>
-    </row>
-    <row r="253">
-      <c r="A253" t="inlineStr">
-        <is>
-          <t>7242214000013</t>
-        </is>
-      </c>
-      <c r="B253" t="inlineStr">
-        <is>
-          <t>Value Match</t>
-        </is>
-      </c>
-    </row>
-    <row r="254">
-      <c r="A254" t="inlineStr">
-        <is>
-          <t>7242218700038</t>
-        </is>
-      </c>
-      <c r="B254" t="inlineStr">
-        <is>
-          <t>Value Match</t>
-        </is>
-      </c>
-    </row>
-    <row r="255">
-      <c r="A255" t="inlineStr">
-        <is>
-          <t>7242218700040</t>
-        </is>
-      </c>
-      <c r="B255" t="inlineStr">
-        <is>
-          <t>Value Match</t>
-        </is>
-      </c>
-    </row>
-    <row r="256">
-      <c r="A256" t="inlineStr">
-        <is>
-          <t>7242218700021</t>
-        </is>
-      </c>
-      <c r="B256" t="inlineStr">
-        <is>
-          <t>Value Match</t>
-        </is>
-      </c>
-    </row>
-    <row r="257">
-      <c r="A257" t="inlineStr">
-        <is>
-          <t>7242213600018</t>
-        </is>
-      </c>
-      <c r="B257" t="inlineStr">
-        <is>
-          <t>Value Match</t>
-        </is>
-      </c>
-    </row>
-    <row r="258">
-      <c r="A258" t="inlineStr">
-        <is>
-          <t>7242218700025</t>
-        </is>
-      </c>
-      <c r="B258" t="inlineStr">
-        <is>
-          <t>Value Match</t>
-        </is>
-      </c>
-    </row>
-    <row r="259">
-      <c r="A259" t="inlineStr">
-        <is>
-          <t>7242218600012</t>
-        </is>
-      </c>
-      <c r="B259" t="inlineStr">
-        <is>
-          <t>Value Match</t>
-        </is>
-      </c>
-    </row>
-    <row r="260">
-      <c r="A260" t="inlineStr">
-        <is>
-          <t>7242218700034</t>
-        </is>
-      </c>
-      <c r="B260" t="inlineStr">
-        <is>
-          <t>Value Match</t>
-        </is>
-      </c>
-    </row>
-    <row r="261">
-      <c r="A261" t="inlineStr">
-        <is>
-          <t>7242213400019</t>
-        </is>
-      </c>
-      <c r="B261" t="inlineStr">
-        <is>
-          <t>Value Match</t>
-        </is>
-      </c>
-    </row>
-    <row r="262">
-      <c r="A262" t="inlineStr">
-        <is>
-          <t>7242218200040</t>
-        </is>
-      </c>
-      <c r="B262" t="inlineStr">
-        <is>
-          <t>Value Not Match</t>
-        </is>
-      </c>
-    </row>
-    <row r="263">
-      <c r="A263" t="inlineStr">
-        <is>
-          <t>7242257600012</t>
-        </is>
-      </c>
-      <c r="B263" t="inlineStr">
-        <is>
-          <t>Value Match</t>
-        </is>
-      </c>
-    </row>
-    <row r="264">
-      <c r="A264" t="inlineStr">
-        <is>
-          <t>7242213400010</t>
-        </is>
-      </c>
-      <c r="B264" t="inlineStr">
-        <is>
-          <t>Value Match</t>
-        </is>
-      </c>
-    </row>
-    <row r="265">
-      <c r="A265" t="inlineStr">
-        <is>
-          <t>7242218200037</t>
-        </is>
-      </c>
-      <c r="B265" t="inlineStr">
-        <is>
-          <t>Value Match</t>
-        </is>
-      </c>
-    </row>
-    <row r="266">
-      <c r="A266" t="inlineStr">
-        <is>
-          <t>7242218700033</t>
-        </is>
-      </c>
-      <c r="B266" t="inlineStr">
         <is>
           <t>Value Match</t>
         </is>

--- a/Auto_RRSIandWiFiSAR_Report/output/WillyWJ_Chen/WiFiSARQUERY.xlsx
+++ b/Auto_RRSIandWiFiSAR_Report/output/WillyWJ_Chen/WiFiSARQUERY.xlsx
@@ -422,7 +422,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B152"/>
+  <dimension ref="A1:B280"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,67 +449,67 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>7228124300036</t>
+          <t>7249141800018</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Value Match</t>
+          <t>Value Not Match</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>7228124300026</t>
+          <t>7249141700008</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Value Match</t>
+          <t>Value Not Match</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>7228124200065</t>
+          <t>7249146200022</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Value Match</t>
+          <t>Value Not Match</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>7228979800008</t>
+          <t>7249146600026</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>no log</t>
+          <t>Value Not Match</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>7228124200054</t>
+          <t>7249146400015</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Value Match</t>
+          <t>no log</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>7228124200012</t>
+          <t>7249146400040</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -521,31 +521,31 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>7228124300034</t>
+          <t>7249146600057</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Value Match</t>
+          <t>Value Not Match</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>7228124200036</t>
+          <t>7249141800047</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Value Match</t>
+          <t>Value Not Match</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>7228124300076</t>
+          <t>7249146400010</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -557,7 +557,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>7228124300006</t>
+          <t>7249146400035</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -569,31 +569,31 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>7228124200006</t>
+          <t>7249141800038</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Value Match</t>
+          <t>Value Not Match</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>7228124300012</t>
+          <t>7249146200038</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Value Match</t>
+          <t>Value Not Match</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>7228124200010</t>
+          <t>7249146800043</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -605,7 +605,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>7228124200029</t>
+          <t>7249146400019</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -617,7 +617,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>7228124200025</t>
+          <t>7249142000064</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -629,19 +629,19 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>7228124300010</t>
+          <t>7249142000005</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Value Match</t>
+          <t>no log</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>7228124300077</t>
+          <t>7249142000031</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -653,7 +653,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>7228124300074</t>
+          <t>7249142000049</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -665,7 +665,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>7228124300081</t>
+          <t>7249146400054</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -677,19 +677,19 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>7228124200033</t>
+          <t>7249146200040</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Value Match</t>
+          <t>Value Not Match</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>7228124300050</t>
+          <t>7249146800041</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -701,67 +701,67 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>7228124300067</t>
+          <t>7249141800052</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Value Match</t>
+          <t>Value Not Match</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>7228124300058</t>
+          <t>7249141800024</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Value Match</t>
+          <t>Value Not Match</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>7228125100001</t>
+          <t>7249141800031</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Value Match</t>
+          <t>Value Not Match</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>7228124300011</t>
+          <t>7249146200037</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Value Match</t>
+          <t>Value Not Match</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>7228124200043</t>
+          <t>7249146200023</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Value Match</t>
+          <t>Value Not Match</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>7228124200008</t>
+          <t>7249142000063</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -773,7 +773,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>7228124200003</t>
+          <t>7249142000041</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -785,7 +785,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>7228124200060</t>
+          <t>7249146800025</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -797,31 +797,31 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>7228101900001</t>
+          <t>7249146200024</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Value Match</t>
+          <t>Value Not Match</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>7228124200059</t>
+          <t>7249146500007</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Value Match</t>
+          <t>Value Not Match</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>7228124200028</t>
+          <t>7249146400036</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -833,43 +833,43 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>7228124200038</t>
+          <t>7249146200047</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Value Match</t>
+          <t>Value Not Match</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>7228124300009</t>
+          <t>7249146600040</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Value Match</t>
+          <t>Value Not Match</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>7228124300053</t>
+          <t>7249142000039</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Value Match</t>
+          <t>Value Not Match</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>7228124300084</t>
+          <t>7249146400003</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -881,7 +881,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>7228124200039</t>
+          <t>7249142000061</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -893,31 +893,31 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>7228124200018</t>
+          <t>7249146100003</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Value Match</t>
+          <t>Value Not Match</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>7228124200002</t>
+          <t>7249146600006</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Value Match</t>
+          <t>Value Not Match</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>7228124200019</t>
+          <t>7249142000037</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -929,7 +929,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>7228124200067</t>
+          <t>7249142000014</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -941,7 +941,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>7228124300069</t>
+          <t>7249142000028</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -953,7 +953,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>7228124200004</t>
+          <t>7249146400022</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -965,7 +965,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>7228124300033</t>
+          <t>7249146800031</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -977,7 +977,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>7228124300035</t>
+          <t>7249142000053</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -989,7 +989,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>7228124300016</t>
+          <t>7249141900012</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1001,7 +1001,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>7228124200040</t>
+          <t>7249142000056</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1013,7 +1013,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>7224908800005</t>
+          <t>7249141800062</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1025,31 +1025,31 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>7228124200042</t>
+          <t>7249141800021</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Value Match</t>
+          <t>Value Not Match</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>7228124300028</t>
+          <t>7249146200074</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Value Match</t>
+          <t>Value Not Match</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>7228124200052</t>
+          <t>7249142000052</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1061,43 +1061,43 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>7228124300057</t>
+          <t>7249146200061</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Value Match</t>
+          <t>Value Not Match</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>7228124200051</t>
+          <t>7249146600012</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Value Match</t>
+          <t>Value Not Match</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>7228124200037</t>
+          <t>7249141800059</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Value Match</t>
+          <t>Value Not Match</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>7228124200076</t>
+          <t>7249142000043</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1109,7 +1109,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>7228124200084</t>
+          <t>7249146400007</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1121,7 +1121,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>7228101600001</t>
+          <t>7249146400020</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1133,7 +1133,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>7228124300032</t>
+          <t>7249146400028</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1145,55 +1145,55 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>7228124200005</t>
+          <t>7249146200019</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Value Match</t>
+          <t>Value Not Match</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>7228124200062</t>
+          <t>7249146600038</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Value Match</t>
+          <t>Value Not Match</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>7228124200014</t>
+          <t>7249146200069</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Value Match</t>
+          <t>Value Not Match</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>7228124200080</t>
+          <t>7249141800055</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Value Match</t>
+          <t>Value Not Match</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>7228124200057</t>
+          <t>7249142000040</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1205,7 +1205,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>7228124300063</t>
+          <t>7249146700009</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1217,7 +1217,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>7228124200077</t>
+          <t>7249146400031</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -1229,31 +1229,31 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>7228124200048</t>
+          <t>7249141800002</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Value Match</t>
+          <t>Value Not Match</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>7228124300030</t>
+          <t>7249146200046</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Value Match</t>
+          <t>Value Not Match</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>7228124300062</t>
+          <t>7249146400047</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -1265,7 +1265,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>7228101300001</t>
+          <t>7249146300012</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -1277,91 +1277,91 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>7228124200066</t>
+          <t>7249146500017</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Value Match</t>
+          <t>Value Not Match</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>7228124200082</t>
+          <t>7249141800053</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Value Match</t>
+          <t>Value Not Match</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>7228124200020</t>
+          <t>7249146100001</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Value Match</t>
+          <t>Value Not Match</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>7228124200044</t>
+          <t>7249146200048</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Value Match</t>
+          <t>Value Not Match</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>7228124300024</t>
+          <t>7249141800014</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Value Match</t>
+          <t>Value Not Match</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>7228124200021</t>
+          <t>7249141800020</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Value Match</t>
+          <t>Value Not Match</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>7228124200058</t>
+          <t>7249142000003</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Value Match</t>
+          <t>Value Not Match</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>7224908800006</t>
+          <t>7249146200041</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -1373,55 +1373,55 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>7228124200068</t>
+          <t>7249146500021</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Value Match</t>
+          <t>Value Not Match</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>7228124300073</t>
+          <t>7249146600010</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Value Match</t>
+          <t>Value Not Match</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>7228124200078</t>
+          <t>7249146600039</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Value Match</t>
+          <t>Value Not Match</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>7228101400001</t>
+          <t>7249146200007</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Value Match</t>
+          <t>Value Not Match</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>7228124200056</t>
+          <t>7249146400051</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -1433,7 +1433,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>7228124200070</t>
+          <t>7249142000057</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -1445,31 +1445,31 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>7228124300025</t>
+          <t>7249146600008</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Value Match</t>
+          <t>Value Not Match</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>7228124300015</t>
+          <t>7249141700003</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Value Match</t>
+          <t>Value Not Match</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>7228124200085</t>
+          <t>7249141900011</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -1481,43 +1481,43 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>7224908800007</t>
+          <t>7249146400049</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Value Not Match</t>
+          <t>Value Match</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>7228124300020</t>
+          <t>7249141700012</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Value Match</t>
+          <t>Value Not Match</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>7228124300019</t>
+          <t>7249141800070</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Value Match</t>
+          <t>Value Not Match</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>7228124200061</t>
+          <t>7249146400053</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -1529,31 +1529,31 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>7228124300002</t>
+          <t>7249146500011</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Value Match</t>
+          <t>Value Not Match</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>7228124200041</t>
+          <t>7249146200062</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Value Match</t>
+          <t>Value Not Match</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>7228124300068</t>
+          <t>7249146400011</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -1565,7 +1565,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>7228124300031</t>
+          <t>7249146400032</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -1577,19 +1577,19 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>7228124300013</t>
+          <t>7249146200056</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Value Match</t>
+          <t>Value Not Match</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>7228124300056</t>
+          <t>7249146800048</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -1601,31 +1601,31 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>7228124200035</t>
+          <t>7249141800056</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Value Match</t>
+          <t>Value Not Match</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>7228979800009</t>
+          <t>7249146200042</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>no log</t>
+          <t>Value Not Match</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>7228124300054</t>
+          <t>7249141900008</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -1637,55 +1637,55 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>7228124200031</t>
+          <t>7249146200060</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Value Match</t>
+          <t>Value Not Match</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>7228124300041</t>
+          <t>7249146500022</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Value Match</t>
+          <t>Value Not Match</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>7228124200026</t>
+          <t>7249142000002</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Value Match</t>
+          <t>Value Not Match</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>7228124300039</t>
+          <t>7249146600036</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Value Match</t>
+          <t>Value Not Match</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>7228124300037</t>
+          <t>7249142000006</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -1697,43 +1697,43 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>7228124300061</t>
+          <t>7249146200011</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Value Match</t>
+          <t>Value Not Match</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>7228124200046</t>
+          <t>7249141800029</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Value Match</t>
+          <t>Value Not Match</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>7228124200075</t>
+          <t>7249146800005</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Value Match</t>
+          <t>Value Not Match</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>7228124300003</t>
+          <t>7249142000036</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -1745,79 +1745,79 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>7228124300029</t>
+          <t>7249146400005</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Value Match</t>
+          <t>Value Not Match</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>7228124300082</t>
+          <t>7249146700014</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Value Match</t>
+          <t>Value Not Match</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>7228124200023</t>
+          <t>7249141800028</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Value Match</t>
+          <t>Value Not Match</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>7228124300060</t>
+          <t>7249146600056</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Value Match</t>
+          <t>Value Not Match</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>7228124200049</t>
+          <t>7249141800067</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Value Match</t>
+          <t>Value Not Match</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>7228101700001</t>
+          <t>7249146200015</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Value Match</t>
+          <t>Value Not Match</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>7228124300023</t>
+          <t>7249146700010</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -1829,19 +1829,19 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>7228124300086</t>
+          <t>7249146200028</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Value Match</t>
+          <t>Value Not Match</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>7228124300059</t>
+          <t>7249142000025</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -1853,19 +1853,19 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>7228124200079</t>
+          <t>7249146100009</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Value Match</t>
+          <t>Value Not Match</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>7228124100001</t>
+          <t>7249146800044</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -1877,7 +1877,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>7228124200081</t>
+          <t>7249142000051</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -1889,31 +1889,31 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>7228979800010</t>
+          <t>7249142000062</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>no log</t>
+          <t>Value Match</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>7228124300045</t>
+          <t>7249146200005</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Value Match</t>
+          <t>no log</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>7228124300038</t>
+          <t>7249141900009</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -1925,55 +1925,55 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>7228124200047</t>
+          <t>7249146600004</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Value Match</t>
+          <t>Value Not Match</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>7228124200013</t>
+          <t>7249146600017</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Value Match</t>
+          <t>Value Not Match</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>7228124200022</t>
+          <t>7249141800044</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Value Match</t>
+          <t>Value Not Match</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>7228124300047</t>
+          <t>7249141900003</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Value Match</t>
+          <t>Value Not Match</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>7228124300014</t>
+          <t>7249146800007</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -1985,43 +1985,43 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>7228124300018</t>
+          <t>7249146600028</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Value Match</t>
+          <t>Value Not Match</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>7228124200069</t>
+          <t>7249146200077</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Value Match</t>
+          <t>Value Not Match</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>7228124300065</t>
+          <t>7249141800017</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Value Match</t>
+          <t>Value Not Match</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>7228124200007</t>
+          <t>7249142000042</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -2033,7 +2033,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>7228124200045</t>
+          <t>7249146400030</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -2045,31 +2045,31 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>7228124200024</t>
+          <t>7249146200066</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Value Match</t>
+          <t>Value Not Match</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>7228124200034</t>
+          <t>7249146200009</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Value Match</t>
+          <t>Value Not Match</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>7228124200053</t>
+          <t>7249142000029</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -2081,7 +2081,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>7228124300040</t>
+          <t>7249146800030</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -2093,43 +2093,43 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>7228124300042</t>
+          <t>7249146100002</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Value Match</t>
+          <t>Value Not Match</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>7228124200027</t>
+          <t>7249146100008</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Value Match</t>
+          <t>Value Not Match</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>7228124200064</t>
+          <t>7249146100005</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Value Match</t>
+          <t>Value Not Match</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>7228124300051</t>
+          <t>7249142000010</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -2141,31 +2141,31 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>7228124300066</t>
+          <t>7249146200044</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Value Match</t>
+          <t>Value Not Match</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>7228124200071</t>
+          <t>7249141900005</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Value Match</t>
+          <t>Value Not Match</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>7228124200055</t>
+          <t>7249146400023</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -2177,31 +2177,31 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>7228124200030</t>
+          <t>7249146600016</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Value Match</t>
+          <t>Value Not Match</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>7228124300048</t>
+          <t>7249141800065</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Value Match</t>
+          <t>Value Not Match</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>7228124300049</t>
+          <t>7249142000035</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -2213,7 +2213,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>7228124300055</t>
+          <t>7249146300002</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -2225,7 +2225,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>7228124300078</t>
+          <t>7249146400021</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -2237,24 +2237,1560 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>7228124300083</t>
+          <t>7249146600032</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Value Match</t>
+          <t>Value Not Match</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>7228124200017</t>
+          <t>7249146400041</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
           <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>7249146300005</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>7249146200033</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Value Not Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>7249141900010</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>7249142000007</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>7249142000060</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>7249146600046</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Value Not Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>7249142000046</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>7249141800071</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Value Not Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>7249142000047</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>7249146700001</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>7249141700011</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Value Not Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>7249142000013</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>7249142000038</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>7249146200012</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Value Not Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>7249146400044</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>7249146200035</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Value Not Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>7249146500014</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Value Not Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>7249146600020</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Value Not Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>7249146600053</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Value Not Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>7249146100010</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Value Not Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>7249146400013</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>7249146500005</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Value Not Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>7249146400038</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>7249146200043</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Value Not Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>7249146800016</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>7249146200063</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Value Not Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>7249146600005</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Value Not Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>7249146200054</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Value Not Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>7249141900006</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>7249146200049</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Value Not Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>7249141800064</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Value Not Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>7249146600033</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Value Not Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>7249146200071</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Value Not Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>7249146500013</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Value Not Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>7249142000020</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>7249141700009</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>Value Not Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>7249146200030</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Value Not Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>7249146500008</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Value Not Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>7249146700013</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>7249146400018</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>7249142000055</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>7249142000017</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>7249146100011</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>Value Not Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>7249146600007</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>Value Not Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>7249146400029</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>7249146200075</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>Value Not Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>7249146200058</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>Value Not Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>7249146800028</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>7249141800012</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>Value Not Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>7249146400033</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>7249142000026</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>Value Not Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>7249146500003</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>Value Not Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>7249146200053</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>Value Not Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>7249141700002</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>Value Not Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>7249146400006</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>7249146800040</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>7249141800042</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>Value Not Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>7249146400055</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>7249146300013</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>7249141800054</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>Value Not Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>7249146500009</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>Value Not Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>7249146500016</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>Value Not Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>7249146200039</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>Value Not Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>7249141800045</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>Value Not Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>7249146600049</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>Value Not Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>7249146500015</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>Value Not Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>7249146700005</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>7249142000011</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>7249146800001</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>Value Not Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>7249146400037</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>7249141800061</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>Value Not Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>7249146800020</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>no log</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>7249142000032</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>7249142000054</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>7249146400042</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>7249142000059</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>7249141800051</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>Value Not Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>7249146600025</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>Value Not Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>7249141800037</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>Value Not Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>7249141800046</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>Value Not Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>7249141800023</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>Value Not Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>7249146300007</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>7249142000034</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>7249141800066</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>Value Not Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>7249142000058</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>7249146200067</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>Value Not Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>7249142000045</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>7249146700002</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>7249146200006</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>Value Not Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>7249146200031</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>Value Not Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>7249146200050</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>Value Not Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>7249146600055</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>Value Not Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>7249146600052</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>Value Not Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>7249146200034</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>Value Not Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>7249146400034</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>7249146200064</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>Value Not Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>7249146600034</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>Value Not Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>7249146800014</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>7249141800048</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>Value Not Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>7249146600019</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>Value Not Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>7249146700004</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>7249146200073</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>Value Not Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>7249146200068</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>Value Not Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>7249146800010</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>7249141700005</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>Value Not Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>7249146200072</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>Value Not Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>7249146600001</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>Value Not Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>7249146400024</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>7249146600031</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>Value Not Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>7249146200029</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>Value Not Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>7249141800006</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>Value Not Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>7249141800058</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>Value Not Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>7249146400052</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>7249146600018</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>Value Not Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>7249146200017</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>Value Not Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>7249146400009</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>7249146400016</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>7249141800033</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>Value Not Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>7249146200070</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>Value Not Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>7249146400025</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>7249146800029</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>Value Not Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>7249146800032</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>Value Not Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>7249146200055</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>Value Not Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>7249146200026</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>Value Not Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>7249146500019</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>Value Not Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>7249146400026</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>7249141800036</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>Value Not Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>7249141800049</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>Value Not Match</t>
         </is>
       </c>
     </row>

--- a/Auto_RRSIandWiFiSAR_Report/output/WillyWJ_Chen/WiFiSARQUERY.xlsx
+++ b/Auto_RRSIandWiFiSAR_Report/output/WillyWJ_Chen/WiFiSARQUERY.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="wifisarquery" sheetId="1" state="visible" r:id="rId1"/>
@@ -52,16 +52,16 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -422,7 +422,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B280"/>
+  <dimension ref="A1:B279"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -430,8 +430,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="16" customWidth="1" min="1" max="1"/>
-    <col width="18" customWidth="1" min="2" max="2"/>
+    <col customWidth="1" max="1" min="1" width="16"/>
+    <col customWidth="1" max="2" min="2" width="18"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -449,7 +449,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>7249141800018</t>
+          <t>7249141700002</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -461,7 +461,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>7249141700008</t>
+          <t>7249141700003</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -473,7 +473,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>7249146200022</t>
+          <t>7249141700005</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -485,7 +485,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>7249146600026</t>
+          <t>7249141700008</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -497,31 +497,31 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>7249146400015</t>
+          <t>7249141700009</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>no log</t>
+          <t>Value Not Match</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>7249146400040</t>
+          <t>7249141700011</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Value Match</t>
+          <t>Value Not Match</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>7249146600057</t>
+          <t>7249141700012</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -533,7 +533,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>7249141800047</t>
+          <t>7249141800002</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -545,31 +545,31 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>7249146400010</t>
+          <t>7249141800006</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Value Match</t>
+          <t>Value Not Match</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>7249146400035</t>
+          <t>7249141800012</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Value Match</t>
+          <t>Value Not Match</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>7249141800038</t>
+          <t>7249141800014</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -581,7 +581,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>7249146200038</t>
+          <t>7249141800017</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -593,91 +593,91 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>7249146800043</t>
+          <t>7249141800018</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Value Match</t>
+          <t>Value Not Match</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>7249146400019</t>
+          <t>7249141800020</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Value Match</t>
+          <t>Value Not Match</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>7249142000064</t>
+          <t>7249141800021</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Value Match</t>
+          <t>Value Not Match</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>7249142000005</t>
+          <t>7249141800023</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>no log</t>
+          <t>Value Not Match</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>7249142000031</t>
+          <t>7249141800024</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Value Match</t>
+          <t>Value Not Match</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>7249142000049</t>
+          <t>7249141800028</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Value Match</t>
+          <t>Value Not Match</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>7249146400054</t>
+          <t>7249141800029</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Value Match</t>
+          <t>Value Not Match</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>7249146200040</t>
+          <t>7249141800031</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -689,19 +689,19 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>7249146800041</t>
+          <t>7249141800033</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Value Match</t>
+          <t>Value Not Match</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>7249141800052</t>
+          <t>7249141800036</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -713,7 +713,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>7249141800024</t>
+          <t>7249141800037</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -725,7 +725,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>7249141800031</t>
+          <t>7249141800038</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -737,7 +737,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>7249146200037</t>
+          <t>7249141800042</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -749,7 +749,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>7249146200023</t>
+          <t>7249141800044</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -761,43 +761,43 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>7249142000063</t>
+          <t>7249141800045</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Value Match</t>
+          <t>Value Not Match</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>7249142000041</t>
+          <t>7249141800046</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Value Match</t>
+          <t>Value Not Match</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>7249146800025</t>
+          <t>7249141800047</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Value Match</t>
+          <t>Value Not Match</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>7249146200024</t>
+          <t>7249141800048</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -809,7 +809,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>7249146500007</t>
+          <t>7249141800049</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -821,19 +821,19 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>7249146400036</t>
+          <t>7249141800051</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Value Match</t>
+          <t>Value Not Match</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>7249146200047</t>
+          <t>7249141800052</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -845,7 +845,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>7249146600040</t>
+          <t>7249141800053</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -857,7 +857,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>7249142000039</t>
+          <t>7249141800054</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -869,31 +869,31 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>7249146400003</t>
+          <t>7249141800055</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Value Match</t>
+          <t>Value Not Match</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>7249142000061</t>
+          <t>7249141800056</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Value Match</t>
+          <t>Value Not Match</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>7249146100003</t>
+          <t>7249141800058</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -905,7 +905,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>7249146600006</t>
+          <t>7249141800059</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -917,103 +917,103 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>7249142000037</t>
+          <t>7249141800061</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Value Match</t>
+          <t>Value Not Match</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>7249142000014</t>
+          <t>7249141800062</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Value Match</t>
+          <t>Value Not Match</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>7249142000028</t>
+          <t>7249141800064</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Value Match</t>
+          <t>Value Not Match</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>7249146400022</t>
+          <t>7249141800065</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Value Match</t>
+          <t>Value Not Match</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>7249146800031</t>
+          <t>7249141800066</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Value Match</t>
+          <t>Value Not Match</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>7249142000053</t>
+          <t>7249141800067</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Value Match</t>
+          <t>Value Not Match</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>7249141900012</t>
+          <t>7249141800070</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Value Match</t>
+          <t>Value Not Match</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>7249142000056</t>
+          <t>7249141800071</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Value Match</t>
+          <t>Value Not Match</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>7249141800062</t>
+          <t>7249141900003</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1025,7 +1025,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>7249141800021</t>
+          <t>7249141900005</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1037,19 +1037,19 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>7249146200074</t>
+          <t>7249141900006</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Value Not Match</t>
+          <t>Value Match</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>7249142000052</t>
+          <t>7249141900008</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1061,43 +1061,43 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>7249146200061</t>
+          <t>7249141900009</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Value Not Match</t>
+          <t>Value Match</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>7249146600012</t>
+          <t>7249141900010</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Value Not Match</t>
+          <t>Value Match</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>7249141800059</t>
+          <t>7249141900011</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Value Not Match</t>
+          <t>Value Match</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>7249142000043</t>
+          <t>7249141900012</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1109,91 +1109,91 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>7249146400007</t>
+          <t>7249142000002</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Value Match</t>
+          <t>Value Not Match</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>7249146400020</t>
+          <t>7249142000003</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Value Match</t>
+          <t>Value Not Match</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>7249146400028</t>
+          <t>7249142000005</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Value Match</t>
+          <t>no log</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>7249146200019</t>
+          <t>7249142000006</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Value Not Match</t>
+          <t>Value Match</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>7249146600038</t>
+          <t>7249142000007</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Value Not Match</t>
+          <t>Value Match</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>7249146200069</t>
+          <t>7249142000010</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Value Not Match</t>
+          <t>Value Match</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>7249141800055</t>
+          <t>7249142000011</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Value Not Match</t>
+          <t>Value Match</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>7249142000040</t>
+          <t>7249142000013</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1205,7 +1205,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>7249146700009</t>
+          <t>7249142000014</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1217,7 +1217,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>7249146400031</t>
+          <t>7249142000017</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -1229,43 +1229,43 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>7249141800002</t>
+          <t>7249142000020</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Value Not Match</t>
+          <t>Value Match</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>7249146200046</t>
+          <t>7249142000025</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Value Not Match</t>
+          <t>Value Match</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>7249146400047</t>
+          <t>7249142000026</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Value Match</t>
+          <t>Value Not Match</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>7249146300012</t>
+          <t>7249142000028</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -1277,103 +1277,103 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>7249146500017</t>
+          <t>7249142000029</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Value Not Match</t>
+          <t>Value Match</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>7249141800053</t>
+          <t>7249142000031</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Value Not Match</t>
+          <t>Value Match</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>7249146100001</t>
+          <t>7249142000032</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Value Not Match</t>
+          <t>Value Match</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>7249146200048</t>
+          <t>7249142000034</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Value Not Match</t>
+          <t>Value Match</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>7249141800014</t>
+          <t>7249142000035</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Value Not Match</t>
+          <t>Value Match</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>7249141800020</t>
+          <t>7249142000036</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Value Not Match</t>
+          <t>Value Match</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>7249142000003</t>
+          <t>7249142000037</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Value Not Match</t>
+          <t>Value Match</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>7249146200041</t>
+          <t>7249142000038</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Value Not Match</t>
+          <t>Value Match</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>7249146500021</t>
+          <t>7249142000039</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -1385,43 +1385,43 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>7249146600010</t>
+          <t>7249142000040</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Value Not Match</t>
+          <t>Value Match</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>7249146600039</t>
+          <t>7249142000041</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Value Not Match</t>
+          <t>Value Match</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>7249146200007</t>
+          <t>7249142000042</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Value Not Match</t>
+          <t>Value Match</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>7249146400051</t>
+          <t>7249142000043</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -1433,7 +1433,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>7249142000057</t>
+          <t>7249142000045</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -1445,31 +1445,31 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>7249146600008</t>
+          <t>7249142000046</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Value Not Match</t>
+          <t>Value Match</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>7249141700003</t>
+          <t>7249142000047</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Value Not Match</t>
+          <t>Value Match</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>7249141900011</t>
+          <t>7249142000049</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -1481,7 +1481,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>7249146400049</t>
+          <t>7249142000051</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -1493,31 +1493,31 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>7249141700012</t>
+          <t>7249142000052</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Value Not Match</t>
+          <t>Value Match</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>7249141800070</t>
+          <t>7249142000053</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Value Not Match</t>
+          <t>Value Match</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>7249146400053</t>
+          <t>7249142000054</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -1529,31 +1529,31 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>7249146500011</t>
+          <t>7249142000055</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Value Not Match</t>
+          <t>Value Match</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>7249146200062</t>
+          <t>7249142000056</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Value Not Match</t>
+          <t>Value Match</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>7249146400011</t>
+          <t>7249142000057</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -1565,7 +1565,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>7249146400032</t>
+          <t>7249142000058</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -1577,19 +1577,19 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>7249146200056</t>
+          <t>7249142000059</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Value Not Match</t>
+          <t>Value Match</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>7249146800048</t>
+          <t>7249142000060</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -1601,31 +1601,31 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>7249141800056</t>
+          <t>7249142000061</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Value Not Match</t>
+          <t>Value Match</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>7249146200042</t>
+          <t>7249142000062</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Value Not Match</t>
+          <t>Value Match</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>7249141900008</t>
+          <t>7249142000063</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -1637,19 +1637,19 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>7249146200060</t>
+          <t>7249142000064</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Value Not Match</t>
+          <t>Value Match</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>7249146500022</t>
+          <t>7249146100001</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -1661,7 +1661,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>7249142000002</t>
+          <t>7249146100002</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -1673,7 +1673,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>7249146600036</t>
+          <t>7249146100003</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -1685,19 +1685,19 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>7249142000006</t>
+          <t>7249146100005</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Value Match</t>
+          <t>Value Not Match</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>7249146200011</t>
+          <t>7249146100008</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -1709,7 +1709,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>7249141800029</t>
+          <t>7249146100009</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -1721,7 +1721,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>7249146800005</t>
+          <t>7249146100010</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -1733,31 +1733,31 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>7249142000036</t>
+          <t>7249146100011</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Value Match</t>
+          <t>Value Not Match</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>7249146400005</t>
+          <t>7249146200005</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Value Not Match</t>
+          <t>no log</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>7249146700014</t>
+          <t>7249146200006</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -1769,7 +1769,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>7249141800028</t>
+          <t>7249146200007</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -1781,7 +1781,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>7249146600056</t>
+          <t>7249146200009</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -1793,7 +1793,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>7249141800067</t>
+          <t>7249146200011</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -1805,7 +1805,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>7249146200015</t>
+          <t>7249146200012</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -1817,19 +1817,19 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>7249146700010</t>
+          <t>7249146200015</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Value Match</t>
+          <t>Value Not Match</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>7249146200028</t>
+          <t>7249146200017</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -1841,19 +1841,19 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>7249142000025</t>
+          <t>7249146200019</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Value Match</t>
+          <t>Value Not Match</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>7249146100009</t>
+          <t>7249146200022</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -1865,67 +1865,67 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>7249146800044</t>
+          <t>7249146200023</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Value Match</t>
+          <t>Value Not Match</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>7249142000051</t>
+          <t>7249146200024</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Value Match</t>
+          <t>Value Not Match</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>7249142000062</t>
+          <t>7249146200026</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Value Match</t>
+          <t>Value Not Match</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>7249146200005</t>
+          <t>7249146200028</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>no log</t>
+          <t>Value Not Match</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>7249141900009</t>
+          <t>7249146200029</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Value Match</t>
+          <t>Value Not Match</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>7249146600004</t>
+          <t>7249146200030</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -1937,7 +1937,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>7249146600017</t>
+          <t>7249146200031</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -1949,7 +1949,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>7249141800044</t>
+          <t>7249146200033</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -1961,7 +1961,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>7249141900003</t>
+          <t>7249146200034</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -1973,19 +1973,19 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>7249146800007</t>
+          <t>7249146200035</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Value Match</t>
+          <t>Value Not Match</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>7249146600028</t>
+          <t>7249146200037</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -1997,7 +1997,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>7249146200077</t>
+          <t>7249146200038</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -2009,7 +2009,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>7249141800017</t>
+          <t>7249146200039</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -2021,31 +2021,31 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>7249142000042</t>
+          <t>7249146200040</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Value Match</t>
+          <t>Value Not Match</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>7249146400030</t>
+          <t>7249146200041</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Value Match</t>
+          <t>Value Not Match</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>7249146200066</t>
+          <t>7249146200042</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -2057,7 +2057,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>7249146200009</t>
+          <t>7249146200043</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -2069,31 +2069,31 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>7249142000029</t>
+          <t>7249146200044</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Value Match</t>
+          <t>Value Not Match</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>7249146800030</t>
+          <t>7249146200046</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Value Match</t>
+          <t>Value Not Match</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>7249146100002</t>
+          <t>7249146200047</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -2105,7 +2105,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>7249146100008</t>
+          <t>7249146200048</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -2117,7 +2117,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>7249146100005</t>
+          <t>7249146200049</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -2129,19 +2129,19 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>7249142000010</t>
+          <t>7249146200050</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Value Match</t>
+          <t>Value Not Match</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>7249146200044</t>
+          <t>7249146200053</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -2153,7 +2153,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>7249141900005</t>
+          <t>7249146200054</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -2165,19 +2165,19 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>7249146400023</t>
+          <t>7249146200055</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Value Match</t>
+          <t>Value Not Match</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>7249146600016</t>
+          <t>7249146200056</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -2189,7 +2189,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>7249141800065</t>
+          <t>7249146200058</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -2201,43 +2201,43 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>7249142000035</t>
+          <t>7249146200060</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Value Match</t>
+          <t>Value Not Match</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>7249146300002</t>
+          <t>7249146200061</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Value Match</t>
+          <t>Value Not Match</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>7249146400021</t>
+          <t>7249146200062</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Value Match</t>
+          <t>Value Not Match</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>7249146600032</t>
+          <t>7249146200063</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -2249,31 +2249,31 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>7249146400041</t>
+          <t>7249146200064</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Value Match</t>
+          <t>Value Not Match</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>7249146300005</t>
+          <t>7249146200066</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Value Match</t>
+          <t>Value Not Match</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>7249146200033</t>
+          <t>7249146200067</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -2285,43 +2285,43 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>7249141900010</t>
+          <t>7249146200068</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Value Match</t>
+          <t>Value Not Match</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>7249142000007</t>
+          <t>7249146200069</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Value Match</t>
+          <t>Value Not Match</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>7249142000060</t>
+          <t>7249146200070</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Value Match</t>
+          <t>Value Not Match</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>7249146600046</t>
+          <t>7249146200071</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -2333,19 +2333,19 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>7249142000046</t>
+          <t>7249146200072</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Value Match</t>
+          <t>Value Not Match</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>7249141800071</t>
+          <t>7249146200073</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -2357,31 +2357,31 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>7249142000047</t>
+          <t>7249146200074</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Value Match</t>
+          <t>Value Not Match</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>7249146700001</t>
+          <t>7249146200075</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Value Match</t>
+          <t>Value Not Match</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>7249141700011</t>
+          <t>7249146200077</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -2393,7 +2393,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>7249142000013</t>
+          <t>7249146300002</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -2405,7 +2405,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>7249142000038</t>
+          <t>7249146300005</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -2417,19 +2417,19 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>7249146200012</t>
+          <t>7249146300007</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Value Not Match</t>
+          <t>Value Match</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>7249146400044</t>
+          <t>7249146300012</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -2441,31 +2441,31 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>7249146200035</t>
+          <t>7249146300013</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Value Not Match</t>
+          <t>Value Match</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>7249146500014</t>
+          <t>7249146400003</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Value Not Match</t>
+          <t>Value Match</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>7249146600020</t>
+          <t>7249146400005</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -2477,31 +2477,31 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>7249146600053</t>
+          <t>7249146400006</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Value Not Match</t>
+          <t>Value Match</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>7249146100010</t>
+          <t>7249146400007</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Value Not Match</t>
+          <t>Value Match</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>7249146400013</t>
+          <t>7249146400009</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -2513,19 +2513,19 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>7249146500005</t>
+          <t>7249146400010</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Value Not Match</t>
+          <t>Value Match</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>7249146400038</t>
+          <t>7249146400011</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -2537,67 +2537,67 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>7249146200043</t>
+          <t>7249146400013</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Value Not Match</t>
+          <t>Value Match</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>7249146800016</t>
+          <t>7249146400015</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Value Match</t>
+          <t>no log</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>7249146200063</t>
+          <t>7249146400016</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Value Not Match</t>
+          <t>Value Match</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>7249146600005</t>
+          <t>7249146400018</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Value Not Match</t>
+          <t>Value Match</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>7249146200054</t>
+          <t>7249146400019</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Value Not Match</t>
+          <t>Value Match</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>7249141900006</t>
+          <t>7249146400020</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -2609,67 +2609,67 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>7249146200049</t>
+          <t>7249146400021</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Value Not Match</t>
+          <t>Value Match</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>7249141800064</t>
+          <t>7249146400022</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Value Not Match</t>
+          <t>Value Match</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>7249146600033</t>
+          <t>7249146400023</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Value Not Match</t>
+          <t>Value Match</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>7249146200071</t>
+          <t>7249146400024</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Value Not Match</t>
+          <t>Value Match</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>7249146500013</t>
+          <t>7249146400025</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Value Not Match</t>
+          <t>Value Match</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>7249142000020</t>
+          <t>7249146400026</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -2681,43 +2681,43 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>7249141700009</t>
+          <t>7249146400028</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Value Not Match</t>
+          <t>Value Match</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>7249146200030</t>
+          <t>7249146400029</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Value Not Match</t>
+          <t>Value Match</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>7249146500008</t>
+          <t>7249146400030</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Value Not Match</t>
+          <t>Value Match</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>7249146700013</t>
+          <t>7249146400031</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -2729,7 +2729,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>7249146400018</t>
+          <t>7249146400032</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -2741,7 +2741,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>7249142000055</t>
+          <t>7249146400033</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -2753,7 +2753,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>7249142000017</t>
+          <t>7249146400034</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -2765,31 +2765,31 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>7249146100011</t>
+          <t>7249146400035</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Value Not Match</t>
+          <t>Value Match</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>7249146600007</t>
+          <t>7249146400036</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Value Not Match</t>
+          <t>Value Match</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>7249146400029</t>
+          <t>7249146400037</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -2801,31 +2801,31 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>7249146200075</t>
+          <t>7249146400038</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Value Not Match</t>
+          <t>Value Match</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>7249146200058</t>
+          <t>7249146400040</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Value Not Match</t>
+          <t>Value Match</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>7249146800028</t>
+          <t>7249146400041</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -2837,19 +2837,19 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>7249141800012</t>
+          <t>7249146400042</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Value Not Match</t>
+          <t>Value Match</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>7249146400033</t>
+          <t>7249146400044</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -2861,55 +2861,55 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>7249142000026</t>
+          <t>7249146400047</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Value Not Match</t>
+          <t>Value Match</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>7249146500003</t>
+          <t>7249146400049</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Value Not Match</t>
+          <t>Value Match</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>7249146200053</t>
+          <t>7249146400051</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Value Not Match</t>
+          <t>Value Match</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>7249141700002</t>
+          <t>7249146400052</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Value Not Match</t>
+          <t>Value Match</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>7249146400006</t>
+          <t>7249146400053</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
@@ -2921,7 +2921,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>7249146800040</t>
+          <t>7249146400054</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
@@ -2933,43 +2933,43 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>7249141800042</t>
+          <t>7249146400055</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Value Not Match</t>
+          <t>Value Match</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>7249146400055</t>
+          <t>7249146500003</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Value Match</t>
+          <t>Value Not Match</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>7249146300013</t>
+          <t>7249146500005</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Value Match</t>
+          <t>Value Not Match</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>7249141800054</t>
+          <t>7249146500007</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
@@ -2981,7 +2981,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>7249146500009</t>
+          <t>7249146500008</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
@@ -2993,7 +2993,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>7249146500016</t>
+          <t>7249146500009</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
@@ -3005,7 +3005,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>7249146200039</t>
+          <t>7249146500011</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
@@ -3017,7 +3017,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>7249141800045</t>
+          <t>7249146500013</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
@@ -3029,7 +3029,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>7249146600049</t>
+          <t>7249146500014</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
@@ -3053,31 +3053,31 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>7249146700005</t>
+          <t>7249146500016</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Value Match</t>
+          <t>Value Not Match</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>7249142000011</t>
+          <t>7249146500017</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Value Match</t>
+          <t>Value Not Match</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>7249146800001</t>
+          <t>7249146500019</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
@@ -3089,19 +3089,19 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>7249146400037</t>
+          <t>7249146500021</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Value Match</t>
+          <t>Value Not Match</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>7249141800061</t>
+          <t>7249146500022</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
@@ -3113,67 +3113,67 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>7249146800020</t>
+          <t>7249146600001</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>no log</t>
+          <t>Value Not Match</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>7249142000032</t>
+          <t>7249146600004</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Value Match</t>
+          <t>Value Not Match</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>7249142000054</t>
+          <t>7249146600005</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Value Match</t>
+          <t>Value Not Match</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>7249146400042</t>
+          <t>7249146600006</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Value Match</t>
+          <t>Value Not Match</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>7249142000059</t>
+          <t>7249146600007</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Value Match</t>
+          <t>Value Not Match</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>7249141800051</t>
+          <t>7249146600008</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
@@ -3185,7 +3185,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>7249146600025</t>
+          <t>7249146600010</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
@@ -3197,7 +3197,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>7249141800037</t>
+          <t>7249146600012</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
@@ -3209,7 +3209,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>7249141800046</t>
+          <t>7249146600016</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
@@ -3221,7 +3221,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>7249141800023</t>
+          <t>7249146600017</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
@@ -3233,31 +3233,31 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>7249146300007</t>
+          <t>7249146600018</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Value Match</t>
+          <t>Value Not Match</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>7249142000034</t>
+          <t>7249146600019</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Value Match</t>
+          <t>Value Not Match</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>7249141800066</t>
+          <t>7249146600020</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
@@ -3269,19 +3269,19 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>7249142000058</t>
+          <t>7249146600025</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Value Match</t>
+          <t>Value Not Match</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>7249146200067</t>
+          <t>7249146600026</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
@@ -3293,31 +3293,31 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>7249142000045</t>
+          <t>7249146600028</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Value Match</t>
+          <t>Value Not Match</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>7249146700002</t>
+          <t>7249146600031</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Value Match</t>
+          <t>Value Not Match</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>7249146200006</t>
+          <t>7249146600032</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
@@ -3329,7 +3329,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>7249146200031</t>
+          <t>7249146600033</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
@@ -3341,7 +3341,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>7249146200050</t>
+          <t>7249146600034</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
@@ -3353,7 +3353,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>7249146600055</t>
+          <t>7249146600036</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
@@ -3365,7 +3365,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>7249146600052</t>
+          <t>7249146600038</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
@@ -3377,7 +3377,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>7249146200034</t>
+          <t>7249146600039</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
@@ -3389,19 +3389,19 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>7249146400034</t>
+          <t>7249146600040</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Value Match</t>
+          <t>Value Not Match</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>7249146200064</t>
+          <t>7249146600046</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
@@ -3413,7 +3413,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>7249146600034</t>
+          <t>7249146600049</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
@@ -3425,19 +3425,19 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>7249146800014</t>
+          <t>7249146600052</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Value Match</t>
+          <t>Value Not Match</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>7249141800048</t>
+          <t>7249146600053</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
@@ -3449,7 +3449,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>7249146600019</t>
+          <t>7249146600055</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
@@ -3461,19 +3461,19 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>7249146700004</t>
+          <t>7249146600056</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Value Match</t>
+          <t>Value Not Match</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>7249146200073</t>
+          <t>7249146600057</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
@@ -3485,19 +3485,19 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>7249146200068</t>
+          <t>7249146700001</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Value Not Match</t>
+          <t>Value Match</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>7249146800010</t>
+          <t>7249146700002</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
@@ -3509,43 +3509,43 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>7249141700005</t>
+          <t>7249146700004</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Value Not Match</t>
+          <t>Value Match</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>7249146200072</t>
+          <t>7249146700005</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Value Not Match</t>
+          <t>Value Match</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>7249146600001</t>
+          <t>7249146700009</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Value Not Match</t>
+          <t>Value Match</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>7249146400024</t>
+          <t>7249146700010</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
@@ -3557,19 +3557,19 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>7249146600031</t>
+          <t>7249146700013</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Value Not Match</t>
+          <t>Value Match</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>7249146200029</t>
+          <t>7249146700014</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
@@ -3581,7 +3581,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>7249141800006</t>
+          <t>7249146800001</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
@@ -3593,7 +3593,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>7249141800058</t>
+          <t>7249146800005</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
@@ -3605,7 +3605,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>7249146400052</t>
+          <t>7249146800007</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
@@ -3617,31 +3617,31 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>7249146600018</t>
+          <t>7249146800010</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Value Not Match</t>
+          <t>Value Match</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>7249146200017</t>
+          <t>7249146800014</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Value Not Match</t>
+          <t>Value Match</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>7249146400009</t>
+          <t>7249146800016</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
@@ -3653,7 +3653,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>7249146400016</t>
+          <t>7249146800025</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
@@ -3665,19 +3665,19 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>7249141800033</t>
+          <t>7249146800028</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Value Not Match</t>
+          <t>Value Match</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>7249146200070</t>
+          <t>7249146800029</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
@@ -3689,7 +3689,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>7249146400025</t>
+          <t>7249146800030</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
@@ -3701,12 +3701,12 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>7249146800029</t>
+          <t>7249146800031</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Value Not Match</t>
+          <t>Value Match</t>
         </is>
       </c>
     </row>
@@ -3725,43 +3725,43 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>7249146200055</t>
+          <t>7249146800040</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>Value Not Match</t>
+          <t>Value Match</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>7249146200026</t>
+          <t>7249146800041</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Value Not Match</t>
+          <t>Value Match</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>7249146500019</t>
+          <t>7249146800043</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>Value Not Match</t>
+          <t>Value Match</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>7249146400026</t>
+          <t>7249146800044</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
@@ -3773,28 +3773,16 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>7249141800036</t>
+          <t>7249146800048</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Value Not Match</t>
-        </is>
-      </c>
-    </row>
-    <row r="280">
-      <c r="A280" t="inlineStr">
-        <is>
-          <t>7249141800049</t>
-        </is>
-      </c>
-      <c r="B280" t="inlineStr">
-        <is>
-          <t>Value Not Match</t>
+          <t>Value Match</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>